--- a/data/pca/factorExposure/factorExposure_2010-07-08.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-07-08.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01504001479159747</v>
+        <v>-0.01659985822650418</v>
       </c>
       <c r="C2">
-        <v>-0.001475199071858398</v>
+        <v>-0.0008948773500957515</v>
       </c>
       <c r="D2">
-        <v>-0.01144120077500293</v>
+        <v>-0.007015266744053155</v>
       </c>
       <c r="E2">
-        <v>0.006515340179082422</v>
+        <v>0.002399435627090492</v>
       </c>
       <c r="F2">
-        <v>-0.03833275039732964</v>
+        <v>0.01177389941706169</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.1199291044265151</v>
+        <v>-0.09510561659940867</v>
       </c>
       <c r="C4">
-        <v>0.09136402588770207</v>
+        <v>-0.01798695100299736</v>
       </c>
       <c r="D4">
-        <v>-0.008796028232905505</v>
+        <v>-0.07799989215904525</v>
       </c>
       <c r="E4">
-        <v>-0.1522287045735768</v>
+        <v>-0.02762465088821001</v>
       </c>
       <c r="F4">
-        <v>-0.07637607265045768</v>
+        <v>-0.04025619536073918</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1261754432128009</v>
+        <v>-0.1518091415228756</v>
       </c>
       <c r="C6">
-        <v>0.06832620146978577</v>
+        <v>-0.02436731279024475</v>
       </c>
       <c r="D6">
-        <v>0.003718771088249216</v>
+        <v>0.01892717901221467</v>
       </c>
       <c r="E6">
-        <v>-0.06337119338846491</v>
+        <v>-0.01272024637281566</v>
       </c>
       <c r="F6">
-        <v>-0.02564605884766256</v>
+        <v>-0.03932677783291463</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.07072143480443152</v>
+        <v>-0.06306091273476695</v>
       </c>
       <c r="C7">
-        <v>0.08505907204792031</v>
+        <v>-0.0005475175851286525</v>
       </c>
       <c r="D7">
-        <v>-0.008614918529752916</v>
+        <v>-0.0512743283683019</v>
       </c>
       <c r="E7">
-        <v>-0.01878711721569119</v>
+        <v>-0.01395535665307276</v>
       </c>
       <c r="F7">
-        <v>0.003604393342810715</v>
+        <v>-0.05568507269757742</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.04167341522542916</v>
+        <v>-0.0598425312619511</v>
       </c>
       <c r="C8">
-        <v>0.009523735445295741</v>
+        <v>0.01274619324622887</v>
       </c>
       <c r="D8">
-        <v>-0.01319079810375771</v>
+        <v>-0.02658293927190619</v>
       </c>
       <c r="E8">
-        <v>-0.08113094048722108</v>
+        <v>-0.01027704914011666</v>
       </c>
       <c r="F8">
-        <v>-0.07877472423088033</v>
+        <v>0.02056244808150907</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.08823272309032931</v>
+        <v>-0.0727960290607584</v>
       </c>
       <c r="C9">
-        <v>0.0620132712584924</v>
+        <v>-0.01463237130965016</v>
       </c>
       <c r="D9">
-        <v>0.007561099463736025</v>
+        <v>-0.07578547020916859</v>
       </c>
       <c r="E9">
-        <v>-0.1167480419630664</v>
+        <v>-0.02049483340651859</v>
       </c>
       <c r="F9">
-        <v>-0.0579224717781715</v>
+        <v>-0.06151347409883723</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.1288837592125024</v>
+        <v>-0.09120222958118214</v>
       </c>
       <c r="C10">
-        <v>-0.1827542808236491</v>
+        <v>-0.01345064670342474</v>
       </c>
       <c r="D10">
-        <v>-0.01091290522528698</v>
+        <v>0.1734426062086424</v>
       </c>
       <c r="E10">
-        <v>0.03853242544130695</v>
+        <v>0.03385234146515274</v>
       </c>
       <c r="F10">
-        <v>0.04202814875907408</v>
+        <v>0.05059245819042099</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.06461922705239018</v>
+        <v>-0.08859226189884011</v>
       </c>
       <c r="C11">
-        <v>0.05645641448865254</v>
+        <v>-0.013701474589227</v>
       </c>
       <c r="D11">
-        <v>0.04076437635479275</v>
+        <v>-0.1067110482487834</v>
       </c>
       <c r="E11">
-        <v>-0.08885854697313336</v>
+        <v>-0.04039035150032666</v>
       </c>
       <c r="F11">
-        <v>-0.04344858961581033</v>
+        <v>-0.02721548095354986</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.07557002064824221</v>
+        <v>-0.09383666429732515</v>
       </c>
       <c r="C12">
-        <v>0.06702385567625443</v>
+        <v>-0.01130190997501739</v>
       </c>
       <c r="D12">
-        <v>0.05403543056226737</v>
+        <v>-0.1119645737124124</v>
       </c>
       <c r="E12">
-        <v>-0.1300890094916154</v>
+        <v>-0.03893336039707446</v>
       </c>
       <c r="F12">
-        <v>-0.0146299118626629</v>
+        <v>-0.02968819373798868</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04148005940232935</v>
+        <v>-0.04376937851230365</v>
       </c>
       <c r="C13">
-        <v>0.03933688029082218</v>
+        <v>-0.004328009601774993</v>
       </c>
       <c r="D13">
-        <v>-0.0257029799807058</v>
+        <v>-0.03786831355895305</v>
       </c>
       <c r="E13">
-        <v>-0.04873592242352915</v>
+        <v>0.01438277920241492</v>
       </c>
       <c r="F13">
-        <v>-0.0249768440091758</v>
+        <v>-0.02108394393439087</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.04673010613555967</v>
+        <v>-0.02222942161093479</v>
       </c>
       <c r="C14">
-        <v>0.0298047232817967</v>
+        <v>-0.01514168625142649</v>
       </c>
       <c r="D14">
-        <v>0.0003218339354239696</v>
+        <v>-0.02681119994057679</v>
       </c>
       <c r="E14">
-        <v>-0.04580104491387947</v>
+        <v>-0.01555978687650042</v>
       </c>
       <c r="F14">
-        <v>-0.02156205768819253</v>
+        <v>-0.02607098686014868</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.02724572042792131</v>
+        <v>-0.03241839755743314</v>
       </c>
       <c r="C15">
-        <v>0.01612934374249969</v>
+        <v>-0.006077935814578788</v>
       </c>
       <c r="D15">
-        <v>-0.0745380285808807</v>
+        <v>-0.03869142090882727</v>
       </c>
       <c r="E15">
-        <v>0.0006836297524084393</v>
+        <v>-0.007201387539478472</v>
       </c>
       <c r="F15">
-        <v>-0.03385775384407921</v>
+        <v>-0.03471138752696261</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07896822636966071</v>
+        <v>-0.07589305296996475</v>
       </c>
       <c r="C16">
-        <v>0.07254755702641957</v>
+        <v>-0.00535277565341069</v>
       </c>
       <c r="D16">
-        <v>0.03891346639385278</v>
+        <v>-0.109846460171645</v>
       </c>
       <c r="E16">
-        <v>-0.1049855116783719</v>
+        <v>-0.05644293022359939</v>
       </c>
       <c r="F16">
-        <v>-0.01765242393109844</v>
+        <v>-0.03526868273637931</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.01657479167453525</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.004398882162471778</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>-0.0240752474056454</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.01084593465748358</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.02897979978435366</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.04487888797114974</v>
+        <v>-0.06152245802713441</v>
       </c>
       <c r="C20">
-        <v>0.02375241644953939</v>
+        <v>-0.003200421263439214</v>
       </c>
       <c r="D20">
-        <v>-0.03664279450037889</v>
+        <v>-0.06524939297137278</v>
       </c>
       <c r="E20">
-        <v>-0.0712507761838279</v>
+        <v>-0.04957954407624614</v>
       </c>
       <c r="F20">
-        <v>-0.003290514641709468</v>
+        <v>-0.03199680991321119</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.03585632256935293</v>
+        <v>-0.03750774089693807</v>
       </c>
       <c r="C21">
-        <v>0.02439240113407244</v>
+        <v>-0.008145936146522781</v>
       </c>
       <c r="D21">
-        <v>0.0151502585501941</v>
+        <v>-0.03470106312414862</v>
       </c>
       <c r="E21">
-        <v>-0.04340136774675863</v>
+        <v>0.01282012509163956</v>
       </c>
       <c r="F21">
-        <v>-0.01586713885323906</v>
+        <v>0.01718797015388553</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.05406142459604554</v>
+        <v>-0.0427665155256905</v>
       </c>
       <c r="C22">
-        <v>0.02081645166617894</v>
+        <v>-0.001066635859124663</v>
       </c>
       <c r="D22">
-        <v>-0.6473209794685549</v>
+        <v>0.001142238499691129</v>
       </c>
       <c r="E22">
-        <v>-0.0108081611601875</v>
+        <v>-0.03416991135042519</v>
       </c>
       <c r="F22">
-        <v>0.1318570872224776</v>
+        <v>0.02554196344378365</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.05462258271075995</v>
+        <v>-0.04280380114032342</v>
       </c>
       <c r="C23">
-        <v>0.02198362185434117</v>
+        <v>-0.001089405611223875</v>
       </c>
       <c r="D23">
-        <v>-0.6495007192902206</v>
+        <v>0.00096833118411802</v>
       </c>
       <c r="E23">
-        <v>-0.01544622172841107</v>
+        <v>-0.03453161345892541</v>
       </c>
       <c r="F23">
-        <v>0.1301306183371865</v>
+        <v>0.02496486720893927</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.07773356168261851</v>
+        <v>-0.08191172094204913</v>
       </c>
       <c r="C24">
-        <v>0.06986929961376441</v>
+        <v>-0.005291433913082856</v>
       </c>
       <c r="D24">
-        <v>0.03270816242992888</v>
+        <v>-0.1114736337982258</v>
       </c>
       <c r="E24">
-        <v>-0.103228377906918</v>
+        <v>-0.04424960859829379</v>
       </c>
       <c r="F24">
-        <v>-0.0222098899263769</v>
+        <v>-0.02772921868568749</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.07537590518323853</v>
+        <v>-0.0864967560180593</v>
       </c>
       <c r="C25">
-        <v>0.051637795343886</v>
+        <v>-0.007684630590819313</v>
       </c>
       <c r="D25">
-        <v>0.05358764958495359</v>
+        <v>-0.09620119055738828</v>
       </c>
       <c r="E25">
-        <v>-0.1102178983573569</v>
+        <v>-0.02579475590620586</v>
       </c>
       <c r="F25">
-        <v>-0.02571154967195859</v>
+        <v>-0.03697527820531313</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.04290287511152766</v>
+        <v>-0.05685304893736484</v>
       </c>
       <c r="C26">
-        <v>0.01650124929972803</v>
+        <v>-0.01527703907224131</v>
       </c>
       <c r="D26">
-        <v>-0.01396921137269922</v>
+        <v>-0.02669193446403672</v>
       </c>
       <c r="E26">
-        <v>-0.08159610704706716</v>
+        <v>-0.02388576760967897</v>
       </c>
       <c r="F26">
-        <v>0.03965508187108831</v>
+        <v>-0.001384394528476709</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1529113002018288</v>
+        <v>-0.1374967696881536</v>
       </c>
       <c r="C28">
-        <v>-0.2762501025575902</v>
+        <v>-0.01071423239940551</v>
       </c>
       <c r="D28">
-        <v>0.007440821111548477</v>
+        <v>0.2763113144099847</v>
       </c>
       <c r="E28">
-        <v>-0.01466928831570961</v>
+        <v>0.06571731525103766</v>
       </c>
       <c r="F28">
-        <v>0.001518275039159547</v>
+        <v>-0.04613959581519506</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.0418800242206288</v>
+        <v>-0.02749031828485383</v>
       </c>
       <c r="C29">
-        <v>0.02694325581351161</v>
+        <v>-0.009350164821000422</v>
       </c>
       <c r="D29">
-        <v>0.004628836755638664</v>
+        <v>-0.02545539064606969</v>
       </c>
       <c r="E29">
-        <v>-0.04130226653056681</v>
+        <v>-0.008501041192896326</v>
       </c>
       <c r="F29">
-        <v>-0.01618658885231082</v>
+        <v>0.007297051183770402</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.08268649330032732</v>
+        <v>-0.06576900153462643</v>
       </c>
       <c r="C30">
-        <v>0.05300393027840106</v>
+        <v>-0.008067679563244862</v>
       </c>
       <c r="D30">
-        <v>0.005988444096141655</v>
+        <v>-0.07324893969130555</v>
       </c>
       <c r="E30">
-        <v>-0.2743100117358916</v>
+        <v>-0.02020348133705582</v>
       </c>
       <c r="F30">
-        <v>0.04958869996138426</v>
+        <v>-0.1234946984507832</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.02966775325505148</v>
+        <v>-0.04839347399200695</v>
       </c>
       <c r="C31">
-        <v>0.05569543275971053</v>
+        <v>-0.01521671812096234</v>
       </c>
       <c r="D31">
-        <v>-0.006012758814806687</v>
+        <v>-0.02980527785769094</v>
       </c>
       <c r="E31">
-        <v>-0.03656338571672348</v>
+        <v>-0.02624241450284847</v>
       </c>
       <c r="F31">
-        <v>-0.02261716849980883</v>
+        <v>0.002148210169144303</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.05479489472840989</v>
+        <v>-0.04814591637643498</v>
       </c>
       <c r="C32">
-        <v>0.002090687604311273</v>
+        <v>-0.0009999504335633238</v>
       </c>
       <c r="D32">
-        <v>0.03685844972889953</v>
+        <v>-0.02366411535431459</v>
       </c>
       <c r="E32">
-        <v>-0.01824302633670034</v>
+        <v>-0.02359069900604723</v>
       </c>
       <c r="F32">
-        <v>-0.1046080319489077</v>
+        <v>-0.005758657420950316</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09469175350405759</v>
+        <v>-0.09205165796696627</v>
       </c>
       <c r="C33">
-        <v>0.06636609299634677</v>
+        <v>-0.01086302196691172</v>
       </c>
       <c r="D33">
-        <v>0.01947081625424293</v>
+        <v>-0.086736196528392</v>
       </c>
       <c r="E33">
-        <v>-0.07458495706635572</v>
+        <v>-0.0423780368600554</v>
       </c>
       <c r="F33">
-        <v>-0.00577241283679973</v>
+        <v>-0.04344262961389714</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06642108194627254</v>
+        <v>-0.06912225025896698</v>
       </c>
       <c r="C34">
-        <v>0.05165005784735465</v>
+        <v>-0.01316941145805866</v>
       </c>
       <c r="D34">
-        <v>0.04653424082805351</v>
+        <v>-0.09004537288273272</v>
       </c>
       <c r="E34">
-        <v>-0.0881638736919791</v>
+        <v>-0.02708329748547645</v>
       </c>
       <c r="F34">
-        <v>-0.02623393597542398</v>
+        <v>-0.05257504379580291</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02006651351655267</v>
+        <v>-0.02426837425351769</v>
       </c>
       <c r="C35">
-        <v>0.02079482319922675</v>
+        <v>-0.002519969106278868</v>
       </c>
       <c r="D35">
-        <v>-0.003976935821654248</v>
+        <v>-0.009367998524794545</v>
       </c>
       <c r="E35">
-        <v>-0.01423798962278967</v>
+        <v>-0.01188877248606009</v>
       </c>
       <c r="F35">
-        <v>0.00563361804596804</v>
+        <v>-0.01261795868930042</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02906912366480855</v>
+        <v>-0.02637727139026699</v>
       </c>
       <c r="C36">
-        <v>0.02016776232222023</v>
+        <v>-0.007102470195806551</v>
       </c>
       <c r="D36">
-        <v>-0.01853652150454584</v>
+        <v>-0.03828958246661777</v>
       </c>
       <c r="E36">
-        <v>-0.08626094362222896</v>
+        <v>-0.01618296567817402</v>
       </c>
       <c r="F36">
-        <v>-0.01071421440362653</v>
+        <v>-0.01364473390020677</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.02612904765386351</v>
+        <v>-0.003196592529166532</v>
       </c>
       <c r="C38">
-        <v>0.05463061192674103</v>
+        <v>-0.0006047732492400831</v>
       </c>
       <c r="D38">
-        <v>-0.02408676254547726</v>
+        <v>-0.003685261684148371</v>
       </c>
       <c r="E38">
-        <v>0.08365174971035481</v>
+        <v>-0.004504262459953481</v>
       </c>
       <c r="F38">
-        <v>0.103436877554254</v>
+        <v>0.003601890377139802</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.09758018210030886</v>
+        <v>-0.1118934641701904</v>
       </c>
       <c r="C39">
-        <v>0.07803813266307674</v>
+        <v>-0.01954863697528873</v>
       </c>
       <c r="D39">
-        <v>0.1256406652697081</v>
+        <v>-0.1449133548589324</v>
       </c>
       <c r="E39">
-        <v>-0.1766834408648261</v>
+        <v>-0.04838029338089966</v>
       </c>
       <c r="F39">
-        <v>0.06547414291422472</v>
+        <v>-0.03941586643208749</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.02429566261816916</v>
+        <v>-0.03740509842314336</v>
       </c>
       <c r="C40">
-        <v>0.05932948904555647</v>
+        <v>-0.00772859833545914</v>
       </c>
       <c r="D40">
-        <v>-0.02796832874767596</v>
+        <v>-0.02558303243380682</v>
       </c>
       <c r="E40">
-        <v>-0.03941916684636126</v>
+        <v>-0.002371463622732739</v>
       </c>
       <c r="F40">
-        <v>-0.0851150350450325</v>
+        <v>0.01610317317431389</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.0300664517775632</v>
+        <v>-0.02645412953017933</v>
       </c>
       <c r="C41">
-        <v>0.02517915008265575</v>
+        <v>-0.006795979706869383</v>
       </c>
       <c r="D41">
-        <v>0.02173150744764608</v>
+        <v>-0.01177229285651118</v>
       </c>
       <c r="E41">
-        <v>-0.007560398265205305</v>
+        <v>-0.01086429740424813</v>
       </c>
       <c r="F41">
-        <v>0.01869496784476266</v>
+        <v>0.01203011983629376</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04614180062590188</v>
+        <v>-0.04314806902278519</v>
       </c>
       <c r="C43">
-        <v>0.04798808061506309</v>
+        <v>-0.007102897285746659</v>
       </c>
       <c r="D43">
-        <v>-0.01122184332227447</v>
+        <v>-0.02183136732781632</v>
       </c>
       <c r="E43">
-        <v>-0.03333366273525806</v>
+        <v>-0.02579736410016992</v>
       </c>
       <c r="F43">
-        <v>0.04409851492852609</v>
+        <v>0.01150644227880837</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.095566405492425</v>
+        <v>-0.0737125735023814</v>
       </c>
       <c r="C44">
-        <v>0.07758230487940924</v>
+        <v>-0.02381026700558309</v>
       </c>
       <c r="D44">
-        <v>-0.0666245360182024</v>
+        <v>-0.09523002198875916</v>
       </c>
       <c r="E44">
-        <v>-0.09983824291225558</v>
+        <v>-0.06315325568050087</v>
       </c>
       <c r="F44">
-        <v>-0.07700560505650504</v>
+        <v>-0.1841085826666345</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.03868905649444686</v>
+        <v>-0.02382575803728186</v>
       </c>
       <c r="C46">
-        <v>0.03674701038021562</v>
+        <v>-0.004118374493547011</v>
       </c>
       <c r="D46">
-        <v>-0.05511945928957279</v>
+        <v>-0.009222757806306115</v>
       </c>
       <c r="E46">
-        <v>-0.01316194551832315</v>
+        <v>-0.02335146029830732</v>
       </c>
       <c r="F46">
-        <v>-0.02927306576043298</v>
+        <v>0.005306862174059628</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05471615806107596</v>
+        <v>-0.05307428933296458</v>
       </c>
       <c r="C47">
-        <v>0.04307415801305424</v>
+        <v>-0.003541047569137687</v>
       </c>
       <c r="D47">
-        <v>-0.002884351447497659</v>
+        <v>-0.01343667708997134</v>
       </c>
       <c r="E47">
-        <v>-0.0247169790828895</v>
+        <v>-0.02240457275357213</v>
       </c>
       <c r="F47">
-        <v>0.01655605619968174</v>
+        <v>0.0473834325924463</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04660894841007248</v>
+        <v>-0.0481602655703498</v>
       </c>
       <c r="C48">
-        <v>0.01619417062999182</v>
+        <v>-0.003358183058957357</v>
       </c>
       <c r="D48">
-        <v>0.006735488750106879</v>
+        <v>-0.0413670554261629</v>
       </c>
       <c r="E48">
-        <v>-0.08383203151711549</v>
+        <v>0.008733661646412866</v>
       </c>
       <c r="F48">
-        <v>-0.05354174780820498</v>
+        <v>-0.01889893890130864</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.23824053498889</v>
+        <v>-0.2073834418905464</v>
       </c>
       <c r="C49">
-        <v>0.06344937322439927</v>
+        <v>-0.01721697373297667</v>
       </c>
       <c r="D49">
-        <v>0.04141955929937031</v>
+        <v>0.004174470020164679</v>
       </c>
       <c r="E49">
-        <v>0.2723101458690013</v>
+        <v>-0.04233607282782881</v>
       </c>
       <c r="F49">
-        <v>0.08536904060457545</v>
+        <v>-0.0331589273000635</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.03710955190572016</v>
+        <v>-0.04871895300330405</v>
       </c>
       <c r="C50">
-        <v>0.04621505579275282</v>
+        <v>-0.01138711907575986</v>
       </c>
       <c r="D50">
-        <v>0.009042511570450619</v>
+        <v>-0.02849003974380588</v>
       </c>
       <c r="E50">
-        <v>-0.0665468462263205</v>
+        <v>-0.02832421513796597</v>
       </c>
       <c r="F50">
-        <v>0.004698887276216673</v>
+        <v>-0.006538218845975224</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.03240605298096181</v>
+        <v>-0.003732927772663207</v>
       </c>
       <c r="C51">
-        <v>0.004157616114102661</v>
+        <v>-0.0008754327489817868</v>
       </c>
       <c r="D51">
-        <v>0.001061844375990471</v>
+        <v>0.001341823052035825</v>
       </c>
       <c r="E51">
-        <v>0.05421675911740688</v>
+        <v>-0.001816213295764428</v>
       </c>
       <c r="F51">
-        <v>0.005521002469866631</v>
+        <v>-0.003965438863794536</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.02034987024218123</v>
+        <v>-0.1406121185662463</v>
       </c>
       <c r="C52">
-        <v>0.007694853728340651</v>
+        <v>-0.01260476404686415</v>
       </c>
       <c r="D52">
-        <v>0.02700754722748122</v>
+        <v>-0.05148496400132559</v>
       </c>
       <c r="E52">
-        <v>-0.00507156606512562</v>
+        <v>-0.01452795203234758</v>
       </c>
       <c r="F52">
-        <v>0.008299421875402155</v>
+        <v>-0.03087335744156447</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1474230482741831</v>
+        <v>-0.1725550534870599</v>
       </c>
       <c r="C53">
-        <v>0.05847685362451163</v>
+        <v>-0.0153815841916835</v>
       </c>
       <c r="D53">
-        <v>-0.01063820819737187</v>
+        <v>-0.02048678506794244</v>
       </c>
       <c r="E53">
-        <v>0.05892764691293249</v>
+        <v>-0.03820704805378895</v>
       </c>
       <c r="F53">
-        <v>0.09132754338851672</v>
+        <v>-0.05745061215743317</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.06276150416762549</v>
+        <v>-0.02202183417735721</v>
       </c>
       <c r="C54">
-        <v>0.03196243476700347</v>
+        <v>-0.01305401988768028</v>
       </c>
       <c r="D54">
-        <v>-0.01275844549572478</v>
+        <v>-0.02790929454392971</v>
       </c>
       <c r="E54">
-        <v>-0.1233063027368409</v>
+        <v>-0.01526254507857566</v>
       </c>
       <c r="F54">
-        <v>-0.06860387477331885</v>
+        <v>-0.0004003246285197197</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.08242637437198878</v>
+        <v>-0.1140779910764376</v>
       </c>
       <c r="C55">
-        <v>0.04797123445802276</v>
+        <v>-0.01435618864828455</v>
       </c>
       <c r="D55">
-        <v>0.03143037142678071</v>
+        <v>-0.01789081057795209</v>
       </c>
       <c r="E55">
-        <v>0.01287493462179138</v>
+        <v>-0.02944469663223252</v>
       </c>
       <c r="F55">
-        <v>0.02061276891861788</v>
+        <v>-0.0473217356088796</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1398226287744563</v>
+        <v>-0.1773442672532224</v>
       </c>
       <c r="C56">
-        <v>0.09289063712723301</v>
+        <v>-0.01293639421720417</v>
       </c>
       <c r="D56">
-        <v>0.01828089089210187</v>
+        <v>-0.01772557816388141</v>
       </c>
       <c r="E56">
-        <v>0.02731289570576177</v>
+        <v>-0.04250837384203893</v>
       </c>
       <c r="F56">
-        <v>0.05965884153558188</v>
+        <v>-0.02695244402044909</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.03382340307440591</v>
+        <v>-0.04708600669691278</v>
       </c>
       <c r="C58">
-        <v>0.02743449549457923</v>
+        <v>-0.003598384554709707</v>
       </c>
       <c r="D58">
-        <v>-0.03354638370079879</v>
+        <v>-0.06126189502541823</v>
       </c>
       <c r="E58">
-        <v>-0.04567026909557247</v>
+        <v>-0.01323963832564102</v>
       </c>
       <c r="F58">
-        <v>0.004026993649772933</v>
+        <v>0.04276728795027598</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.2143107878536751</v>
+        <v>-0.1701303795682988</v>
       </c>
       <c r="C59">
-        <v>-0.2428357243724216</v>
+        <v>-0.01273910104215257</v>
       </c>
       <c r="D59">
-        <v>0.05065039364602683</v>
+        <v>0.2328677609265813</v>
       </c>
       <c r="E59">
-        <v>0.02779784437621123</v>
+        <v>0.0466436540469877</v>
       </c>
       <c r="F59">
-        <v>-0.03199845795718904</v>
+        <v>0.03135523049345629</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2375547705773079</v>
+        <v>-0.240093170467032</v>
       </c>
       <c r="C60">
-        <v>0.1429773443172843</v>
+        <v>0.004222442674897013</v>
       </c>
       <c r="D60">
-        <v>0.07729466164179112</v>
+        <v>-0.05703163068155837</v>
       </c>
       <c r="E60">
-        <v>0.108911033871739</v>
+        <v>-0.01195099645696854</v>
       </c>
       <c r="F60">
-        <v>0.01086530686529704</v>
+        <v>0.04637261887457937</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.09429266240372496</v>
+        <v>-0.08581696688638422</v>
       </c>
       <c r="C61">
-        <v>0.06604957733699937</v>
+        <v>-0.01492277439394831</v>
       </c>
       <c r="D61">
-        <v>0.07034193398983554</v>
+        <v>-0.1042732701329106</v>
       </c>
       <c r="E61">
-        <v>-0.1454734505697954</v>
+        <v>-0.03336245277997021</v>
       </c>
       <c r="F61">
-        <v>0.0166944518000638</v>
+        <v>-0.02517693521569742</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1300262302533269</v>
+        <v>-0.1683311547761801</v>
       </c>
       <c r="C62">
-        <v>0.07533520719036362</v>
+        <v>-0.01681328673081976</v>
       </c>
       <c r="D62">
-        <v>0.004612639458848828</v>
+        <v>-0.01655074418486564</v>
       </c>
       <c r="E62">
-        <v>0.05012852084526057</v>
+        <v>-0.03733331057162904</v>
       </c>
       <c r="F62">
-        <v>0.06232172130988122</v>
+        <v>-0.01280841635049511</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04503583162831445</v>
+        <v>-0.04276105242699216</v>
       </c>
       <c r="C63">
-        <v>0.01819469290195921</v>
+        <v>-0.00448164809840209</v>
       </c>
       <c r="D63">
-        <v>0.008495137577698618</v>
+        <v>-0.04500241168822599</v>
       </c>
       <c r="E63">
-        <v>-0.07032687923902371</v>
+        <v>-0.01353021817516553</v>
       </c>
       <c r="F63">
-        <v>0.008399233448946237</v>
+        <v>-0.01253076281268407</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.09701422501347411</v>
+        <v>-0.112251116492826</v>
       </c>
       <c r="C64">
-        <v>0.0569521708080071</v>
+        <v>-0.0121385262383447</v>
       </c>
       <c r="D64">
-        <v>-0.003443028492171269</v>
+        <v>-0.03733527364594486</v>
       </c>
       <c r="E64">
-        <v>-0.07011645846995021</v>
+        <v>-0.01875711460451768</v>
       </c>
       <c r="F64">
-        <v>0.01429269072834319</v>
+        <v>-0.01725679696777767</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1205135533886248</v>
+        <v>-0.1428163696490329</v>
       </c>
       <c r="C65">
-        <v>0.04038155982479076</v>
+        <v>-0.03073960940181298</v>
       </c>
       <c r="D65">
-        <v>0.01907528176582382</v>
+        <v>0.04546745471710293</v>
       </c>
       <c r="E65">
-        <v>-0.09764371245813547</v>
+        <v>-0.003255755004571407</v>
       </c>
       <c r="F65">
-        <v>-0.00419659108298692</v>
+        <v>-0.04184994788028077</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1104964314287072</v>
+        <v>-0.1341254978146151</v>
       </c>
       <c r="C66">
-        <v>0.1151903835577054</v>
+        <v>-0.01716151492936118</v>
       </c>
       <c r="D66">
-        <v>0.121607208187219</v>
+        <v>-0.1313329830812699</v>
       </c>
       <c r="E66">
-        <v>-0.1589399485361943</v>
+        <v>-0.0581073004757379</v>
       </c>
       <c r="F66">
-        <v>0.0652801081182324</v>
+        <v>-0.04470959862920736</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.083094612777391</v>
+        <v>-0.0655651648414248</v>
       </c>
       <c r="C67">
-        <v>0.06644567180437931</v>
+        <v>-0.004427741421265568</v>
       </c>
       <c r="D67">
-        <v>-0.02306990847809747</v>
+        <v>-0.05632463307982623</v>
       </c>
       <c r="E67">
-        <v>0.05840090513289571</v>
+        <v>-0.01904321361921309</v>
       </c>
       <c r="F67">
-        <v>0.1263945594863538</v>
+        <v>0.04321724317496833</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1277605451441394</v>
+        <v>-0.1109934557197059</v>
       </c>
       <c r="C68">
-        <v>-0.2729114922309282</v>
+        <v>-0.02168362835432398</v>
       </c>
       <c r="D68">
-        <v>0.01647140892315666</v>
+        <v>0.2745663278975431</v>
       </c>
       <c r="E68">
-        <v>-0.04392779181878122</v>
+        <v>0.08431758965862095</v>
       </c>
       <c r="F68">
-        <v>0.01044344661524554</v>
+        <v>-0.05033323814400684</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.04463803358841113</v>
+        <v>-0.04062964913752844</v>
       </c>
       <c r="C69">
-        <v>0.0187136572625783</v>
+        <v>-0.001158441869052175</v>
       </c>
       <c r="D69">
-        <v>-0.008467203981099906</v>
+        <v>-0.008946223584208034</v>
       </c>
       <c r="E69">
-        <v>-0.01415050628389038</v>
+        <v>-0.02609478051786664</v>
       </c>
       <c r="F69">
-        <v>0.04201592032734927</v>
+        <v>0.01623668618292915</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.05220929766069608</v>
+        <v>-0.06422005153778262</v>
       </c>
       <c r="C70">
-        <v>0.05603394402634541</v>
+        <v>0.02710465211656059</v>
       </c>
       <c r="D70">
-        <v>0.02490268877189723</v>
+        <v>-0.01030152057053505</v>
       </c>
       <c r="E70">
-        <v>-0.0598078573785468</v>
+        <v>0.04319389530503989</v>
       </c>
       <c r="F70">
-        <v>-0.001486164359161989</v>
+        <v>0.3403399087149618</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1476133128966245</v>
+        <v>-0.1297255938460419</v>
       </c>
       <c r="C71">
-        <v>-0.278571231208696</v>
+        <v>-0.02538604326974713</v>
       </c>
       <c r="D71">
-        <v>0.01325466382661977</v>
+        <v>0.2903499086912278</v>
       </c>
       <c r="E71">
-        <v>-0.05563289517318471</v>
+        <v>0.09225456408608161</v>
       </c>
       <c r="F71">
-        <v>0.01811622740528792</v>
+        <v>-0.05242195994012238</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1273303400993785</v>
+        <v>-0.1386376655812215</v>
       </c>
       <c r="C72">
-        <v>0.02625607508262027</v>
+        <v>-0.02397260789984261</v>
       </c>
       <c r="D72">
-        <v>0.006523503807315378</v>
+        <v>-0.009854088677492108</v>
       </c>
       <c r="E72">
-        <v>-0.04511572701764736</v>
+        <v>-0.04204150025394274</v>
       </c>
       <c r="F72">
-        <v>0.05014713352649584</v>
+        <v>-0.02528845303369956</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2271125542794859</v>
+        <v>-0.2098561526627901</v>
       </c>
       <c r="C73">
-        <v>0.130743725149111</v>
+        <v>-0.01177620484528388</v>
       </c>
       <c r="D73">
-        <v>0.1547378586820618</v>
+        <v>-0.02631594682351302</v>
       </c>
       <c r="E73">
-        <v>0.4647796734370713</v>
+        <v>-0.07123643398923528</v>
       </c>
       <c r="F73">
-        <v>0.2025512325666798</v>
+        <v>-0.02094921595076292</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.08813085558539066</v>
+        <v>-0.09370106139713542</v>
       </c>
       <c r="C74">
-        <v>0.08678853783966096</v>
+        <v>-0.01183040177868238</v>
       </c>
       <c r="D74">
-        <v>0.007083205151565499</v>
+        <v>-0.0286551597239643</v>
       </c>
       <c r="E74">
-        <v>0.02757273786813814</v>
+        <v>-0.05127721462930971</v>
       </c>
       <c r="F74">
-        <v>0.09878938035075119</v>
+        <v>-0.04063049571127802</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.08581384762008783</v>
+        <v>-0.1297434927890965</v>
       </c>
       <c r="C75">
-        <v>0.06306540053605618</v>
+        <v>-0.02605537339073052</v>
       </c>
       <c r="D75">
-        <v>0.003688804406197105</v>
+        <v>-0.03847983731798158</v>
       </c>
       <c r="E75">
-        <v>-0.009571279614830685</v>
+        <v>-0.05873786119688684</v>
       </c>
       <c r="F75">
-        <v>0.00724500482937861</v>
+        <v>-0.007420558132875186</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.07697431291497223</v>
+        <v>-0.009165749177588807</v>
       </c>
       <c r="C76">
-        <v>0.07674954385636436</v>
+        <v>-0.002026282806773624</v>
       </c>
       <c r="D76">
-        <v>-0.005868245681693965</v>
+        <v>-0.004176047659207855</v>
       </c>
       <c r="E76">
-        <v>0.05385038352202352</v>
+        <v>-0.009460977304185589</v>
       </c>
       <c r="F76">
-        <v>0.03003097112768632</v>
+        <v>-0.002229318296340867</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.0695797662832711</v>
+        <v>-0.08075779478989947</v>
       </c>
       <c r="C77">
-        <v>0.01418349905830414</v>
+        <v>-0.01183657910357856</v>
       </c>
       <c r="D77">
-        <v>0.03470467770937129</v>
+        <v>-0.09835325865916027</v>
       </c>
       <c r="E77">
-        <v>-0.1981389186456594</v>
+        <v>-0.03009074170745507</v>
       </c>
       <c r="F77">
-        <v>-0.1117240051800389</v>
+        <v>-0.0382445312876139</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1808527245826419</v>
+        <v>-0.1101533946290219</v>
       </c>
       <c r="C78">
-        <v>0.1406501821952186</v>
+        <v>-0.04439326104708671</v>
       </c>
       <c r="D78">
-        <v>-0.1757655604625226</v>
+        <v>-0.1160532217112952</v>
       </c>
       <c r="E78">
-        <v>0.04221739549628561</v>
+        <v>-0.08926217946518449</v>
       </c>
       <c r="F78">
-        <v>-0.6628327585288245</v>
+        <v>-0.07642830557105681</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.129159080801372</v>
+        <v>-0.1622589318121893</v>
       </c>
       <c r="C79">
-        <v>0.07730877166015565</v>
+        <v>-0.02005504409908605</v>
       </c>
       <c r="D79">
-        <v>-0.008453610979178116</v>
+        <v>-0.02345406776651994</v>
       </c>
       <c r="E79">
-        <v>0.01085763182605644</v>
+        <v>-0.04858720501623422</v>
       </c>
       <c r="F79">
-        <v>0.04043268075353645</v>
+        <v>-0.005259445488451767</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.06788799757781089</v>
+        <v>-0.07983757394603078</v>
       </c>
       <c r="C80">
-        <v>0.04047628045647596</v>
+        <v>0.001502352126117073</v>
       </c>
       <c r="D80">
-        <v>0.074518489916112</v>
+        <v>-0.05342782988382513</v>
       </c>
       <c r="E80">
-        <v>-0.05962564253423232</v>
+        <v>-0.02776523608756304</v>
       </c>
       <c r="F80">
-        <v>0.04550546624948515</v>
+        <v>0.01072315827953365</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1215687457570731</v>
+        <v>-0.1220556456474471</v>
       </c>
       <c r="C81">
-        <v>0.04913286819415146</v>
+        <v>-0.02984380668498107</v>
       </c>
       <c r="D81">
-        <v>-0.01180085706864028</v>
+        <v>-0.02764219892898576</v>
       </c>
       <c r="E81">
-        <v>-0.06114877494525494</v>
+        <v>-0.05810532306510869</v>
       </c>
       <c r="F81">
-        <v>0.02676466256226796</v>
+        <v>0.003381955296728205</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1213477943214579</v>
+        <v>-0.1621182073901857</v>
       </c>
       <c r="C82">
-        <v>0.0573752372540832</v>
+        <v>-0.02042781329721203</v>
       </c>
       <c r="D82">
-        <v>0.007529941230408324</v>
+        <v>-0.02314008961451661</v>
       </c>
       <c r="E82">
-        <v>-0.008456266390915112</v>
+        <v>-0.03469733873682796</v>
       </c>
       <c r="F82">
-        <v>0.1010717915620115</v>
+        <v>-0.05167510350056066</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.08175714164314452</v>
+        <v>-0.06642547812343638</v>
       </c>
       <c r="C83">
-        <v>0.07829430509368435</v>
+        <v>-0.004035125018492983</v>
       </c>
       <c r="D83">
-        <v>0.008962627361565554</v>
+        <v>-0.0462129055205478</v>
       </c>
       <c r="E83">
-        <v>-0.04013306172636431</v>
+        <v>-0.003640713451884965</v>
       </c>
       <c r="F83">
-        <v>0.09662598980342088</v>
+        <v>0.03111636301313957</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.04776493395803661</v>
+        <v>-0.06070596708227514</v>
       </c>
       <c r="C84">
-        <v>-0.05306460220022933</v>
+        <v>-0.01184120924273579</v>
       </c>
       <c r="D84">
-        <v>0.04246046449147613</v>
+        <v>-0.05907256266354544</v>
       </c>
       <c r="E84">
-        <v>0.01864549209392805</v>
+        <v>0.003917450306530086</v>
       </c>
       <c r="F84">
-        <v>-0.1944945036767267</v>
+        <v>-0.01468414304578193</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1199724140119629</v>
+        <v>-0.1376439322790848</v>
       </c>
       <c r="C85">
-        <v>0.05456320485877746</v>
+        <v>-0.02549757913471422</v>
       </c>
       <c r="D85">
-        <v>0.005635163523648357</v>
+        <v>-0.02062491566770789</v>
       </c>
       <c r="E85">
-        <v>0.01434826233289594</v>
+        <v>-0.0402195497465915</v>
       </c>
       <c r="F85">
-        <v>0.05706940968642091</v>
+        <v>-0.039888256959694</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.09192295240649657</v>
+        <v>-0.1005455411807944</v>
       </c>
       <c r="C86">
-        <v>0.01367234430974706</v>
+        <v>0.006786411028122238</v>
       </c>
       <c r="D86">
-        <v>-0.02582698963509098</v>
+        <v>-0.01282444290377803</v>
       </c>
       <c r="E86">
-        <v>0.2774754622159518</v>
+        <v>-0.1313511079414486</v>
       </c>
       <c r="F86">
-        <v>-0.4498221671566579</v>
+        <v>0.8302688855019889</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.1226311969983025</v>
+        <v>-0.1011864817184942</v>
       </c>
       <c r="C87">
-        <v>0.06506124777761309</v>
+        <v>-0.02629552561424968</v>
       </c>
       <c r="D87">
-        <v>-0.0143154645588552</v>
+        <v>-0.0688947153970598</v>
       </c>
       <c r="E87">
-        <v>-0.06720820953576903</v>
+        <v>0.0539773200540332</v>
       </c>
       <c r="F87">
-        <v>-0.01946325754524282</v>
+        <v>-0.09306526467786376</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.05901863541991034</v>
+        <v>-0.06156712047980611</v>
       </c>
       <c r="C88">
-        <v>0.06065540878520208</v>
+        <v>-0.003443565927927673</v>
       </c>
       <c r="D88">
-        <v>0.03311519832733519</v>
+        <v>-0.05671464774685458</v>
       </c>
       <c r="E88">
-        <v>-0.02447015654066178</v>
+        <v>-0.02516661673915501</v>
       </c>
       <c r="F88">
-        <v>0.02166566592787954</v>
+        <v>-0.007820370304918556</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.2283709363246307</v>
+        <v>-0.1319631831204891</v>
       </c>
       <c r="C89">
-        <v>-0.3718455408349333</v>
+        <v>-0.004419529556901256</v>
       </c>
       <c r="D89">
-        <v>-0.0493355792851281</v>
+        <v>0.2764235146853122</v>
       </c>
       <c r="E89">
-        <v>0.03014171016088169</v>
+        <v>0.09037594161852198</v>
       </c>
       <c r="F89">
-        <v>-0.02096839197446951</v>
+        <v>-0.03348340657162426</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1554926961906093</v>
+        <v>-0.1418882834414136</v>
       </c>
       <c r="C90">
-        <v>-0.2613144186703572</v>
+        <v>-0.02098543332834977</v>
       </c>
       <c r="D90">
-        <v>0.01209672400373272</v>
+        <v>0.2758730926798549</v>
       </c>
       <c r="E90">
-        <v>-0.01339675603973088</v>
+        <v>0.1027817045219953</v>
       </c>
       <c r="F90">
-        <v>0.0205204696101729</v>
+        <v>-0.03852871646349802</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.07585972145415264</v>
+        <v>-0.1168993943803242</v>
       </c>
       <c r="C91">
-        <v>0.06056276487653777</v>
+        <v>-0.01627767910988853</v>
       </c>
       <c r="D91">
-        <v>-0.003778999595002404</v>
+        <v>-0.002510557591812762</v>
       </c>
       <c r="E91">
-        <v>0.01718035962824959</v>
+        <v>-0.0584747466696048</v>
       </c>
       <c r="F91">
-        <v>-0.003861379526833552</v>
+        <v>0.03012527716697934</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1665313423523198</v>
+        <v>-0.1442344566295956</v>
       </c>
       <c r="C92">
-        <v>-0.2969788519289961</v>
+        <v>-0.01223228001965409</v>
       </c>
       <c r="D92">
-        <v>-0.03023120987974327</v>
+        <v>0.310746829820375</v>
       </c>
       <c r="E92">
-        <v>-0.04993863931527617</v>
+        <v>0.09886074919947796</v>
       </c>
       <c r="F92">
-        <v>-0.02440372201892212</v>
+        <v>-0.02931117169808229</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1694932806355971</v>
+        <v>-0.1462776991666596</v>
       </c>
       <c r="C93">
-        <v>-0.3062238985976652</v>
+        <v>-0.01768375024565706</v>
       </c>
       <c r="D93">
-        <v>0.0405811740877488</v>
+        <v>0.2802312388755705</v>
       </c>
       <c r="E93">
-        <v>-0.01325476842449877</v>
+        <v>0.06931142326068887</v>
       </c>
       <c r="F93">
-        <v>-0.003828101437230803</v>
+        <v>-0.02958691800600391</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1143131101172667</v>
+        <v>-0.1334205629618935</v>
       </c>
       <c r="C94">
-        <v>0.08348010298603106</v>
+        <v>-0.02348728089167339</v>
       </c>
       <c r="D94">
-        <v>-0.009526679841040796</v>
+        <v>-0.0513484176345867</v>
       </c>
       <c r="E94">
-        <v>0.0131344256238323</v>
+        <v>-0.06110524453555739</v>
       </c>
       <c r="F94">
-        <v>0.0345274404118158</v>
+        <v>-0.02574187803356606</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1384649968727014</v>
+        <v>-0.1272454203950884</v>
       </c>
       <c r="C95">
-        <v>0.05787581228951153</v>
+        <v>-0.006362862054819617</v>
       </c>
       <c r="D95">
-        <v>-0.02281657353253414</v>
+        <v>-0.08879405150895919</v>
       </c>
       <c r="E95">
-        <v>-0.0471880721990795</v>
+        <v>-0.04000083997754847</v>
       </c>
       <c r="F95">
-        <v>-0.1208699689127868</v>
+        <v>0.008466912372818967</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>-0.09508785259068343</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>0.989365174768836</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>0.01461020456660184</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>-0.0602587334885992</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>-0.050407429453182</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1175781704763007</v>
+        <v>-0.1878385930077021</v>
       </c>
       <c r="C97">
-        <v>-0.01730935425749976</v>
+        <v>0.0125046535209245</v>
       </c>
       <c r="D97">
-        <v>-0.01325079094738089</v>
+        <v>0.009708034455054217</v>
       </c>
       <c r="E97">
-        <v>-0.2970127597428572</v>
+        <v>-0.01352910168532527</v>
       </c>
       <c r="F97">
-        <v>0.1953543242177526</v>
+        <v>0.1631605973313105</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.2580732802071945</v>
+        <v>-0.2080791303212375</v>
       </c>
       <c r="C98">
-        <v>0.1249472315228175</v>
+        <v>-0.007402555926274497</v>
       </c>
       <c r="D98">
-        <v>-0.05497713274941535</v>
+        <v>-0.01664465149315929</v>
       </c>
       <c r="E98">
-        <v>0.2573373684457907</v>
+        <v>0.08595533419124593</v>
       </c>
       <c r="F98">
-        <v>0.08125120424922223</v>
+        <v>0.1444178526114404</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.07310443927983086</v>
+        <v>-0.05776681752079875</v>
       </c>
       <c r="C99">
-        <v>0.05559847030600304</v>
+        <v>0.003261916858539657</v>
       </c>
       <c r="D99">
-        <v>-0.01502376582785724</v>
+        <v>-0.03241505786312209</v>
       </c>
       <c r="E99">
-        <v>0.04096976003442098</v>
+        <v>-0.02658375918781158</v>
       </c>
       <c r="F99">
-        <v>0.009275026115075117</v>
+        <v>-0.004033529474063299</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>-0.1224585865021284</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>0.0478942075780694</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>-0.3208343196268548</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>0.9078100713819592</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>0.05923799146203898</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.04220129591050317</v>
+        <v>-0.0273694155101646</v>
       </c>
       <c r="C101">
-        <v>0.02636829086345564</v>
+        <v>-0.009266554814441096</v>
       </c>
       <c r="D101">
-        <v>0.004859949263097282</v>
+        <v>-0.02510152189506383</v>
       </c>
       <c r="E101">
-        <v>-0.03895028362834776</v>
+        <v>-0.008660114919882623</v>
       </c>
       <c r="F101">
-        <v>-0.01663285828740702</v>
+        <v>0.009341168606703351</v>
       </c>
     </row>
     <row r="102" spans="1:6">
